--- a/similarities/split_global/harmonic_similarity_timestamps_308.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_308.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,230 +484,260 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:min', 'A:hdim7/C', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:09.180000', '0:00:15.600000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:01:45.280000', '0:02:02.260000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=9.18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=105.28</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_5</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:7']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:7']]</t>
+          <t>['F:maj', 'F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:18.010000', '0:00:21.490000')]</t>
+          <t>('0:03:55.320000', '0:04:02.100000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:20.080000', '0:00:23.280000')]</t>
+          <t>('0:00:21.720000', '0:00:24.960000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=18.01']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=235.32</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=20.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=21.72</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000'), ('0:00:26.960000', '0:00:33.500000'), ('0:00:10.160000', '0:00:13.840000')]</t>
+          <t>('0:00:01.420000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:08.640000', '0:01:17.380000'), ('0:00:41.380000', '0:00:43.340000'), ('0:01:27.200000', '0:01:37.220000')]</t>
+          <t>('0:00:08.180000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=1.42</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=87.2']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=8.18</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F', 'C', 'G', 'A:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['C', 'G', 'D/3', 'E:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:07.160000', '0:00:15.080000')]</t>
+          <t>('0:00:10.014172', '0:00:17.734807')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000')]</t>
+          <t>('0:00:09.336000', '0:00:14.901000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=10.014172</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:56.500000', '0:02:58.780000'), ('0:00:23.080000', '0:00:29.900000')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:43.780000', '0:00:46.440000'), ('0:01:41.320000', '0:01:54.060000')]</t>
+          <t>('0:01:16.560000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=176.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=23.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=43.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=101.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -716,295 +746,293 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A', 'D', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:12.680000', '0:00:32.500000')]</t>
+          <t>('0:03:46.220000', '0:03:49.640000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.360000', '0:00:08.620000')]</t>
+          <t>('0:00:51.473401', '0:01:00.146054')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=12.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=226.22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=1.36']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=51.473401</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>['G', 'C', 'G', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:52.740000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:04.824512')]</t>
+          <t>('0:00:49.402280', '0:00:59.224321')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=49.40228</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:50.360000', '0:00:57.040000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:39.180000', '0:00:53.360000'), ('0:01:51.920000', '0:01:55.360000')]</t>
+          <t>('0:00:07.470000', '0:00:12.620000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=7.47</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db:min', 'Ab']]</t>
+          <t>['A:7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:47.890000', '0:00:52.970000')]</t>
+          <t>('0:00:44.660000', '0:00:48.530000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.823786', '0:00:20.068412')]</t>
+          <t>('0:00:42.100000', '0:00:48.620000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=47.89']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=44.66</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=12.823786']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=42.1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>['Eb', 'Bb/3', 'C:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'E:min7']]</t>
+          <t>['A', 'E', 'F#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
+          <t>('0:00:21.412000', '0:00:25.282000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:26.250000', '0:00:33.016000')]</t>
+          <t>('0:00:02.795551', '0:00:15.447641')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=4.511043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=21.412</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=26.25']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=2.795551</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000')]</t>
+          <t>('0:00:13.580000', '0:00:27.980000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:10.260000', '0:00:15.940000')]</t>
+          <t>('0:00:48.250000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=13.58</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>jaah_53</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1014,188 +1042,184 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C']]</t>
+          <t>['G', 'A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:10.937548', '0:00:15.824081')]</t>
+          <t>('0:00:42.940000', '0:00:50.310000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:06.640000', '0:00:13.600000')]</t>
+          <t>('0:01:06.640000', '0:01:14.100000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=10.937548']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=42.94</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=6.64']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=66.64</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:08.160000', '0:02:09.880000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:08.150589', '0:01:20.236575')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=128.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=68.150589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'C#:maj'], ['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:08.340000', '0:00:10.800000'), ('0:00:08.960000', '0:00:11.420000')]</t>
+          <t>('0:00:16.701519', '0:00:23.528185')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:44.580000'), ('0:00:42.340000', '0:00:45.160000')]</t>
+          <t>('0:00:00.460000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=8.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=8.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=16.701519</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=41.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G', 'D', 'G', 'D', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A', 'E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:00:03.294000', '0:00:08.399000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+          <t>('0:00:34.866000', '0:01:05.747000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=3.294</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
